--- a/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_3_202309_diag.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_3_202309_diag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C767752F-8F9A-4F6B-AAA9-9881391D50F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE602978-503D-4836-ABAB-FA23E0BF93CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="502">
   <si>
     <t>type</t>
   </si>
@@ -1507,24 +1507,12 @@
     <t>village_id</t>
   </si>
   <si>
-    <t>select_one region</t>
-  </si>
-  <si>
     <t>Région</t>
   </si>
   <si>
-    <t>select_one district</t>
-  </si>
-  <si>
     <t>District</t>
   </si>
   <si>
-    <t>select_one village</t>
-  </si>
-  <si>
-    <t>select_one village_id</t>
-  </si>
-  <si>
     <t>d_region</t>
   </si>
   <si>
@@ -1550,6 +1538,9 @@
   </si>
   <si>
     <t>(Sept 2023) ONCHO - 3.Formulaire Résutat &amp; Morbidité V1.2</t>
+  </si>
+  <si>
+    <t>concat(${d_recorder_id}, '_', ${d_ecole_id}, '_', ${d_num_ordre})</t>
   </si>
 </sst>
 </file>
@@ -1974,8 +1965,8 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,7 +1977,9 @@
     <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" style="5"/>
     <col min="7" max="7" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="5"/>
+    <col min="8" max="11" width="11.5703125" style="5"/>
+    <col min="12" max="12" width="59" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2045,39 +2038,39 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>492</v>
+      <c r="A4" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>494</v>
+      <c r="A5" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>32</v>
@@ -2089,12 +2082,12 @@
         <v>9</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>495</v>
+      <c r="A6" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>33</v>
@@ -2106,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2138,8 +2131,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
+      <c r="A9" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>36</v>
@@ -2162,6 +2155,12 @@
         <v>31</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2282,10 +2281,10 @@
         <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>9</v>
@@ -13243,7 +13242,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13267,10 +13266,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>

--- a/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_3_202309_diag.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_3_202309_diag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE602978-503D-4836-ABAB-FA23E0BF93CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D5662B-FC5D-4BFD-8C88-1A850D8E46E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1540,7 +1540,7 @@
     <t>(Sept 2023) ONCHO - 3.Formulaire Résutat &amp; Morbidité V1.2</t>
   </si>
   <si>
-    <t>concat(${d_recorder_id}, '_', ${d_ecole_id}, '_', ${d_num_ordre})</t>
+    <t>concat(${d_ecole_id}, '_', ${d_num_ordre})</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1966,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_3_202309_diag.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_3_202309_diag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D5662B-FC5D-4BFD-8C88-1A850D8E46E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67647596-1978-4126-8DB2-B3112A3C0756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="506">
   <si>
     <t>type</t>
   </si>
@@ -1534,13 +1534,25 @@
     <t>Prurit</t>
   </si>
   <si>
-    <t>cm_oncho_pre_stop_3_202309_diag_v1_2</t>
-  </si>
-  <si>
-    <t>(Sept 2023) ONCHO - 3.Formulaire Résutat &amp; Morbidité V1.2</t>
-  </si>
-  <si>
     <t>concat(${d_ecole_id}, '_', ${d_num_ordre})</t>
+  </si>
+  <si>
+    <t>d_village2</t>
+  </si>
+  <si>
+    <t>d_village_id2</t>
+  </si>
+  <si>
+    <t>${d_village} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${d_village} != 'Autre'</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO - 3.Formulaire Résutat &amp; Morbidité 2</t>
+  </si>
+  <si>
+    <t>cm_oncho_pre_stop_3_202309_diag_v2</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +1975,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1989,8 @@
     <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" style="5"/>
     <col min="7" max="7" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="11.5703125" style="5"/>
+    <col min="8" max="8" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.5703125" style="5"/>
     <col min="12" max="12" width="59" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.5703125" style="5"/>
   </cols>
@@ -2090,16 +2103,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>500</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2107,13 +2123,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2121,24 +2143,30 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>501</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="J8" s="5" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>36</v>
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>9</v>
@@ -2148,115 +2176,115 @@
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>37</v>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="M10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>9</v>
@@ -2264,27 +2292,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>497</v>
+        <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>498</v>
+        <v>42</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>9</v>
@@ -2292,42 +2320,70 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13242,14 +13298,14 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
@@ -13266,10 +13322,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>

--- a/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_3_202309_diag.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_3_202309_diag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67647596-1978-4126-8DB2-B3112A3C0756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E619746-B89F-49EA-BBA2-18E3C11AA46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="508">
   <si>
     <t>type</t>
   </si>
@@ -1553,6 +1553,12 @@
   </si>
   <si>
     <t>cm_oncho_pre_stop_3_202309_diag_v2</t>
+  </si>
+  <si>
+    <t>Entrer le nom du village de remplassement</t>
+  </si>
+  <si>
+    <t>Code du village remplassé</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1983,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2112,7 @@
         <v>500</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>506</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>502</v>
@@ -2146,7 +2152,7 @@
         <v>501</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>507</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>502</v>
@@ -13298,8 +13304,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
